--- a/diagnostic comparisons/Selection numbers.xlsx
+++ b/diagnostic comparisons/Selection numbers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mitchell\Documents\GitHub\astrophysicscapstone\diagnostic comparisons\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5b824f7673720fc0/Documents/GitHub/astrophysicscapstone/diagnostic comparisons/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAAD384C-5E87-4E04-A338-F27EB3E04C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{CAAD384C-5E87-4E04-A338-F27EB3E04C03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9750A11E-838F-4D9A-BAC4-7EDCA0D66182}"/>
   <bookViews>
-    <workbookView xWindow="3570" yWindow="3780" windowWidth="20985" windowHeight="15585" xr2:uid="{3E1108FE-DF27-4D80-B740-11424C759188}"/>
+    <workbookView xWindow="11910" yWindow="0" windowWidth="12180" windowHeight="15370" xr2:uid="{3E1108FE-DF27-4D80-B740-11424C759188}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,24 +435,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCC1292-23D7-4AAE-B0E8-A2A1C4192C7E}">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:G20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -466,32 +466,32 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -499,27 +499,27 @@
         <v>874</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B9">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B10">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>152</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>879</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>14</v>
       </c>
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>7</v>
       </c>
@@ -547,7 +547,7 @@
         <v>874</v>
       </c>
       <c r="D18">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="E18">
         <v>45</v>
@@ -559,7 +559,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
         <v>8</v>
       </c>
@@ -567,7 +567,7 @@
         <v>241</v>
       </c>
       <c r="D19">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="E19">
         <v>50</v>
@@ -579,7 +579,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>9</v>
       </c>
@@ -587,7 +587,7 @@
         <v>375</v>
       </c>
       <c r="D20">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="E20">
         <v>54</v>
@@ -596,7 +596,29 @@
         <v>13</v>
       </c>
       <c r="G20">
-        <v>382</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="C21">
+        <f t="shared" ref="C21:G21" si="0">SUM(C18:C20)</f>
+        <v>1490</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>149</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>137</v>
+      </c>
+      <c r="G21">
+        <f>SUM(G18:G20)</f>
+        <v>1647</v>
       </c>
     </row>
   </sheetData>
